--- a/Aws/AWSサービス一覧.xlsx
+++ b/Aws/AWSサービス一覧.xlsx
@@ -9,12 +9,13 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -345,6 +346,70 @@
   </si>
   <si>
     <t>AWS Cloud9 allows you to write, run, and debug your code with just a browser. With AWS Cloud9, you have immediate access to a rich code editor, integrated debugger, and built-in terminal with preconfigured AWS CLI. You can get started in minutes and no longer have to spend the time to install local applications or configure your development machine.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X-Ray</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">開発者は、AWS X-Ray を使用して、本番環境や分散アプリケーション (マイクロサービスアーキテクチャを使用して構築されたアプリケーションなど) を分析およびデバッグできます。
+X-Ray を使用すると、アプリケーションやその基盤となるサービスの実行状況を把握し、パフォーマンスの問題やエラーの根本原因を特定して、トラブルシューティングを行えます。
+X-Ray では、アプリケーション内で転送されるリクエストがエンドツーエンドで表示され、アプリケーションの基盤となるコンポーネントのマップも表示されます。
+X-Ray を使用すると、開発中か本番環境かにかかわらず、シンプルな 3 層アプリケーションから数千のサービスで構成される複雑なマイクロサービスアプリケーションまで、さまざまなアプリケーションを分析できます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Enablement </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サードパーティーの AWS 認定エキスパートの支援により、プロジェクトを迅速に完了できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS IQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Managed Services</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMS では、エンタープライズカスタマーやパートナーに代わって AWS インフラストラクチャを操作します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボット工学</t>
+    <rPh sb="4" eb="6">
+      <t>コウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RoboMaker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インテリジェントなロボットアプリケーションを容易に開発、テスト、デプロイします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックチェーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Managed Blockchain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケーラブルなブロックチェーンネットワークを簡単に作成および管理する。
+Amazon Managed Blockchain は、オープンソースの Hyperledger Fabric および Ethereum フレームワークを使用して、スケーラブルなブロックチェーンネットワークの作成と管理を容易にする、完全マネージド型のブロックチェーンサービスです。スマートコントラクトやアプリケーションを作成し、ブロックチェーンネットワーク上で実行して、安全に取引を行うことができます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -697,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D50" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -861,16 +926,25 @@
       <c r="C18" t="s">
         <v>27</v>
       </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>28</v>
       </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>29</v>
       </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>35</v>
       </c>
@@ -887,6 +961,9 @@
       <c r="C22" t="s">
         <v>31</v>
       </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="2:5" ht="27" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
@@ -959,6 +1036,9 @@
       <c r="C31" t="s">
         <v>53</v>
       </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>54</v>
       </c>
@@ -978,26 +1058,41 @@
       <c r="C33" t="s">
         <v>58</v>
       </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>59</v>
       </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
         <v>60</v>
       </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
         <v>61</v>
       </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
         <v>62</v>
       </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="2:5" ht="54" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
@@ -1035,21 +1130,33 @@
       <c r="C42" t="s">
         <v>71</v>
       </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>72</v>
       </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
         <v>73</v>
       </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
         <v>74</v>
       </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="46" spans="2:5" ht="81" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
@@ -1057,6 +1164,60 @@
       </c>
       <c r="E46" s="1" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="108" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
